--- a/docs/StructureDefinition-program-review.xlsx
+++ b/docs/StructureDefinition-program-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T00:01:09-05:00</t>
+    <t>2024-11-28T00:14:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
